--- a/datos/lplantillas.xlsx
+++ b/datos/lplantillas.xlsx
@@ -1,85 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b96311e1b5eba1a/Desktop/PYTHON/myexercises/Ortopedia/plantillas/datos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_ABB04B6CDD4916CEEB3B98154BFE2EFD761DE352" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC3446B5-E61D-414D-8D57-F160C81B1427}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="48" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3732" yWindow="48" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t>dni</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Plantilla</t>
-  </si>
-  <si>
-    <t>Medico</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Talle</t>
-  </si>
-  <si>
-    <t>Scan</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Seña</t>
-  </si>
-  <si>
-    <t>Restante</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,26 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,66 +407,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col width="17.21875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Paciente</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dni</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Sexo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Edad</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Plantilla</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Medico</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Talle</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Scan</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Seña</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Restante</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>florencia sosa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Halliburton</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
+      <c r="L2" t="n">
+        <v>25500</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos/lplantillas.xlsx
+++ b/datos/lplantillas.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -574,6 +574,1408 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>juan jimenez</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>892282891</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Di Menna</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21500</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>21/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>juan jimenez</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Halliburton</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21500</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>7/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JUAN JIMENEZ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12981231</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Di Menna</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21300</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>21/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>juan jimenez</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poliform</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Halliburton</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>21999</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>10/7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JUAN JIMENEZ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Poliform</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Di Menna</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>10/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Juan Jimenez</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2130021</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>30211</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>10211</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>21/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHARLES BUKOWSKI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>321321</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Poliform</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Halliburton</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7111</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Tarjeta</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>jauncito</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32123</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Maenza</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>128123</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>126002</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>qwertq</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7121</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>21789</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Kramer</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7121</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0222</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>6975</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>216111</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>216000</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12341</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Halliburton</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8200</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>6200</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Maenza</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6221</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5009</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUANITO </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32123</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Kramer</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Rochas L</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Halliburton</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>26111</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>25711</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>qwrwer</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Multiform</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Maenza</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>9500</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>original juan</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Kramer</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Halliburton</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>48000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>28000</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mira</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kramer</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7111</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>7090</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Mercado Pago</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>25-06-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rami</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2341</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Poliform</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Maenza</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>213</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
